--- a/tests/manual_tests.xlsx
+++ b/tests/manual_tests.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Return as table: show on map 2 bedroom properties within 1 killomiter fro burj halifa</t>
   </si>
   <si>
-    <t xml:space="preserve">the code was not created in easily</t>
+    <t xml:space="preserve">the code was not created easily</t>
   </si>
 </sst>
 </file>
